--- a/ComcastCRMGUIFramework2/resourse/testData.xlsx
+++ b/ComcastCRMGUIFramework2/resourse/testData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Username</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>TD_1</t>
+  </si>
+  <si>
+    <t>ConatctName</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -512,7 +515,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,6 +523,7 @@
     <col min="1" max="1" width="15.54296875" customWidth="1"/>
     <col min="2" max="2" width="14.90625" customWidth="1"/>
     <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
     <col min="5" max="5" width="11.81640625" customWidth="1"/>
     <col min="6" max="6" width="17.453125" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
@@ -536,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
